--- a/crew manifest.xlsx
+++ b/crew manifest.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1890" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{4CABEABB-2A3B-4A38-AD7B-892305962E92}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modro\assignment3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162C0E11-82D3-4E26-85E8-2A20879D0558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="492">
   <si>
     <t>NAME</t>
   </si>
@@ -969,9 +974,6 @@
     <t>LONGBOAT</t>
   </si>
   <si>
-    <t>Original Mmutineer, ordered assault on Lucretia Jans</t>
-  </si>
-  <si>
     <t>Arian</t>
   </si>
   <si>
@@ -1498,13 +1500,16 @@
   </si>
   <si>
     <t>Jacob Pietersz, Reijnder Hendricxsz, Gerrit Willemsz, Isbrant Isbrantsz</t>
+  </si>
+  <si>
+    <t>Original Mutineer, ordered assault on Lucretia Jans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,16 +1582,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1631,7 +1636,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92B3D360-4624-4115-94D5-4B68FCACB4DD}" name="Table2" displayName="Table2" ref="A1:O289" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92B3D360-4624-4115-94D5-4B68FCACB4DD}" name="Table2" displayName="Table2" ref="A1:O289" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:O289" xr:uid="{1BFA0AAA-F1AD-46FE-90F5-135B84BFF5AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O289">
     <sortCondition ref="N1:N289"/>
@@ -1956,14 +1961,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L155" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="N171" sqref="N171"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I148" sqref="A148:XFD148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
@@ -1978,7 +1984,7 @@
     <col min="15" max="15" width="139.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -2873,12 +2879,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>157</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>198</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>198</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>227</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>258</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>266</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>267</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>276</v>
       </c>
@@ -4123,10 +4129,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>278</v>
       </c>
+      <c r="B88" t="s">
+        <v>252</v>
+      </c>
       <c r="E88" t="s">
         <v>57</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>286</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -4393,10 +4402,10 @@
         <v>314</v>
       </c>
       <c r="J99" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -4407,20 +4416,20 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" t="s">
         <v>316</v>
-      </c>
-      <c r="B101" t="s">
-        <v>317</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -4429,7 +4438,7 @@
         <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E102" t="s">
         <v>302</v>
@@ -4438,10 +4447,10 @@
         <v>196</v>
       </c>
       <c r="J102" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -4452,13 +4461,13 @@
         <v>158</v>
       </c>
       <c r="J103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K103" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E104" t="s">
         <v>302</v>
@@ -4475,7 +4484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -4483,38 +4492,38 @@
         <v>128</v>
       </c>
       <c r="C105" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" t="s">
         <v>323</v>
       </c>
-      <c r="D105" t="s">
+      <c r="I105" t="s">
         <v>324</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>325</v>
       </c>
-      <c r="J105" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
       <c r="B106" t="s">
+        <v>326</v>
+      </c>
+      <c r="D106" t="s">
         <v>327</v>
       </c>
-      <c r="D106" t="s">
+      <c r="J106" t="s">
         <v>328</v>
       </c>
-      <c r="J106" t="s">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>330</v>
-      </c>
-      <c r="B107" t="s">
-        <v>331</v>
       </c>
       <c r="D107" t="s">
         <v>49</v>
@@ -4529,13 +4538,13 @@
         <v>254</v>
       </c>
       <c r="J107" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -4546,27 +4555,27 @@
         <v>18</v>
       </c>
       <c r="D108" t="s">
+        <v>332</v>
+      </c>
+      <c r="J108" t="s">
         <v>333</v>
       </c>
-      <c r="J108" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>194</v>
       </c>
       <c r="B109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" t="s">
         <v>335</v>
-      </c>
-      <c r="D109" t="s">
-        <v>336</v>
       </c>
       <c r="G109" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4586,10 +4595,10 @@
         <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -4606,10 +4615,10 @@
         <v>196</v>
       </c>
       <c r="J111" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -4635,29 +4644,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>194</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G113" t="s">
         <v>196</v>
       </c>
       <c r="J113" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" t="s">
-        <v>341</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D114" t="s">
         <v>49</v>
@@ -4672,12 +4681,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" t="s">
         <v>343</v>
-      </c>
-      <c r="B115" t="s">
-        <v>344</v>
       </c>
       <c r="D115" t="s">
         <v>179</v>
@@ -4692,49 +4701,49 @@
         <v>254</v>
       </c>
       <c r="J115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M115" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
         <v>281</v>
       </c>
       <c r="D116" t="s">
+        <v>346</v>
+      </c>
+      <c r="J116" t="s">
         <v>347</v>
       </c>
-      <c r="J116" t="s">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>349</v>
-      </c>
-      <c r="B117" t="s">
-        <v>350</v>
       </c>
       <c r="G117" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" t="s">
         <v>351</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>352</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>353</v>
-      </c>
-      <c r="D118" t="s">
-        <v>354</v>
       </c>
       <c r="E118" t="s">
         <v>302</v>
@@ -4743,57 +4752,57 @@
         <v>314</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" t="s">
         <v>355</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>356</v>
-      </c>
-      <c r="C119" t="s">
-        <v>357</v>
       </c>
       <c r="D119" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B120" t="s">
         <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D120" t="s">
         <v>70</v>
       </c>
       <c r="J120" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
         <v>360</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>361</v>
       </c>
-      <c r="D121" t="s">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>363</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>364</v>
-      </c>
-      <c r="C122" t="s">
-        <v>365</v>
       </c>
       <c r="D122" t="s">
         <v>49</v>
@@ -4811,18 +4820,18 @@
         <v>254</v>
       </c>
       <c r="J122" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
         <v>367</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>368</v>
-      </c>
-      <c r="D123" t="s">
-        <v>369</v>
       </c>
       <c r="E123" t="s">
         <v>302</v>
@@ -4831,7 +4840,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -4859,27 +4868,27 @@
         <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D125" t="s">
         <v>27</v>
       </c>
       <c r="J125" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>85</v>
       </c>
       <c r="B126" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" t="s">
         <v>372</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>373</v>
-      </c>
-      <c r="D126" t="s">
-        <v>374</v>
       </c>
       <c r="E126" t="s">
         <v>307</v>
@@ -4894,54 +4903,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" t="s">
         <v>375</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>376</v>
       </c>
-      <c r="C127" t="s">
-        <v>377</v>
-      </c>
       <c r="J127" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>183</v>
       </c>
       <c r="B128" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" t="s">
         <v>378</v>
-      </c>
-      <c r="C128" t="s">
-        <v>379</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>183</v>
       </c>
       <c r="D129" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G129" t="s">
         <v>196</v>
       </c>
       <c r="J129" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
         <v>381</v>
-      </c>
-      <c r="B130" t="s">
-        <v>382</v>
       </c>
       <c r="C130" t="s">
         <v>288</v>
@@ -4953,21 +4962,21 @@
         <v>20</v>
       </c>
       <c r="J130" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C131" t="s">
         <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E131" t="s">
         <v>307</v>
@@ -4976,15 +4985,15 @@
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C132" t="s">
         <v>263</v>
@@ -4999,18 +5008,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
         <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E133" t="s">
         <v>302</v>
@@ -5022,10 +5031,10 @@
         <v>314</v>
       </c>
       <c r="J133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -5033,21 +5042,21 @@
         <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
       </c>
       <c r="J134" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C135" t="s">
         <v>263</v>
@@ -5056,10 +5065,10 @@
         <v>18</v>
       </c>
       <c r="J135" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -5070,61 +5079,61 @@
         <v>196</v>
       </c>
       <c r="J136" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>30</v>
       </c>
       <c r="B137" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" t="s">
         <v>395</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>396</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>397</v>
-      </c>
-      <c r="E137" t="s">
-        <v>398</v>
       </c>
       <c r="I137">
         <v>18</v>
       </c>
       <c r="M137" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C138" t="s">
         <v>263</v>
       </c>
       <c r="D138" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E138" t="s">
         <v>307</v>
       </c>
       <c r="J138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
         <v>403</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>404</v>
-      </c>
-      <c r="C139" t="s">
-        <v>405</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -5133,71 +5142,71 @@
         <v>196</v>
       </c>
       <c r="J139" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>407</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>408</v>
-      </c>
-      <c r="C140" t="s">
-        <v>409</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
       <c r="J140" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>411</v>
-      </c>
-      <c r="B141" t="s">
-        <v>412</v>
       </c>
       <c r="G141" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B142" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" t="s">
         <v>413</v>
-      </c>
-      <c r="C142" t="s">
-        <v>414</v>
       </c>
       <c r="G142" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G143" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s">
+        <v>415</v>
+      </c>
+      <c r="C144" t="s">
         <v>416</v>
-      </c>
-      <c r="C144" t="s">
-        <v>417</v>
       </c>
       <c r="G144" t="s">
         <v>196</v>
@@ -5206,18 +5215,18 @@
         <v>22</v>
       </c>
       <c r="J144" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" t="s">
-        <v>411</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>419</v>
-      </c>
-      <c r="C145" t="s">
-        <v>420</v>
       </c>
       <c r="D145" t="s">
         <v>27</v>
@@ -5229,32 +5238,32 @@
         <v>38</v>
       </c>
       <c r="J145" t="s">
+        <v>420</v>
+      </c>
+      <c r="M145" t="s">
         <v>421</v>
       </c>
-      <c r="M145" t="s">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>423</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>424</v>
-      </c>
-      <c r="C146" t="s">
-        <v>425</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
       <c r="J146" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" t="s">
-        <v>427</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -5269,107 +5278,107 @@
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>427</v>
+      </c>
+      <c r="B148" t="s">
         <v>428</v>
-      </c>
-      <c r="B148" t="s">
-        <v>429</v>
       </c>
       <c r="E148" t="s">
         <v>302</v>
       </c>
       <c r="J148" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" t="s">
-        <v>431</v>
       </c>
       <c r="B149" t="s">
         <v>281</v>
       </c>
       <c r="C149" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>430</v>
+      </c>
+      <c r="B150" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" t="s">
-        <v>431</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>389</v>
+      </c>
+      <c r="D150" t="s">
         <v>433</v>
-      </c>
-      <c r="C150" t="s">
-        <v>390</v>
-      </c>
-      <c r="D150" t="s">
-        <v>434</v>
       </c>
       <c r="G150" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>430</v>
+      </c>
+      <c r="D151" t="s">
         <v>431</v>
-      </c>
-      <c r="D151" t="s">
-        <v>432</v>
       </c>
       <c r="G151" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="J152" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
         <v>437</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>438</v>
-      </c>
-      <c r="C153" t="s">
-        <v>439</v>
       </c>
       <c r="D153" t="s">
         <v>27</v>
       </c>
       <c r="J153" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>441</v>
       </c>
-      <c r="B154" t="s">
+      <c r="J154" t="s">
         <v>442</v>
       </c>
-      <c r="J154" t="s">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" t="s">
-        <v>444</v>
-      </c>
       <c r="B155" t="s">
+        <v>363</v>
+      </c>
+      <c r="C155" t="s">
         <v>364</v>
-      </c>
-      <c r="C155" t="s">
-        <v>365</v>
       </c>
       <c r="D155" t="s">
         <v>49</v>
@@ -5381,18 +5390,18 @@
         <v>22</v>
       </c>
       <c r="J155" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
         <v>446</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>447</v>
-      </c>
-      <c r="C156" t="s">
-        <v>448</v>
       </c>
       <c r="D156" t="s">
         <v>49</v>
@@ -5404,55 +5413,55 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B157" t="s">
         <v>31</v>
       </c>
       <c r="C157" t="s">
+        <v>449</v>
+      </c>
+      <c r="D157" t="s">
         <v>450</v>
-      </c>
-      <c r="D157" t="s">
-        <v>451</v>
       </c>
       <c r="E157" t="s">
         <v>302</v>
       </c>
       <c r="J157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
         <v>453</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>454</v>
-      </c>
-      <c r="C158" t="s">
-        <v>455</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
       </c>
       <c r="L158" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>455</v>
+      </c>
+      <c r="B159" t="s">
         <v>456</v>
-      </c>
-      <c r="B159" t="s">
-        <v>457</v>
       </c>
       <c r="C159" t="s">
         <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E159" t="s">
         <v>307</v>
@@ -5461,29 +5470,29 @@
         <v>17</v>
       </c>
       <c r="J159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
         <v>460</v>
-      </c>
-      <c r="B160" t="s">
-        <v>461</v>
       </c>
       <c r="C160" t="s">
         <v>263</v>
       </c>
       <c r="D160" t="s">
+        <v>461</v>
+      </c>
+      <c r="J160" t="s">
         <v>462</v>
       </c>
-      <c r="J160" t="s">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" t="s">
-        <v>464</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
@@ -5501,48 +5510,48 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B162" t="s">
         <v>184</v>
       </c>
       <c r="D162" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G162" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G163" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>466</v>
+      </c>
+      <c r="B164" t="s">
         <v>467</v>
       </c>
-      <c r="B164" t="s">
+      <c r="J164" t="s">
+        <v>442</v>
+      </c>
+      <c r="M164" t="s">
         <v>468</v>
       </c>
-      <c r="J164" t="s">
-        <v>443</v>
-      </c>
-      <c r="M164" t="s">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="A165" t="s">
-        <v>470</v>
       </c>
       <c r="D165" t="s">
         <v>70</v>
@@ -5551,12 +5560,12 @@
         <v>196</v>
       </c>
       <c r="J165" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="A166" t="s">
-        <v>472</v>
       </c>
       <c r="D166" t="s">
         <v>70</v>
@@ -5565,18 +5574,18 @@
         <v>196</v>
       </c>
       <c r="J166" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>472</v>
+      </c>
+      <c r="B167" t="s">
         <v>473</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>474</v>
-      </c>
-      <c r="C167" t="s">
-        <v>475</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
@@ -5588,15 +5597,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>152</v>
       </c>
       <c r="B168" t="s">
+        <v>475</v>
+      </c>
+      <c r="C168" t="s">
         <v>476</v>
-      </c>
-      <c r="C168" t="s">
-        <v>477</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
@@ -5608,24 +5617,24 @@
         <v>33</v>
       </c>
       <c r="M168" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>477</v>
+      </c>
+      <c r="B169" t="s">
+        <v>467</v>
+      </c>
+      <c r="J169" t="s">
         <v>478</v>
       </c>
-      <c r="B169" t="s">
-        <v>468</v>
-      </c>
-      <c r="J169" t="s">
+      <c r="M169" t="s">
         <v>479</v>
       </c>
-      <c r="M169" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>149</v>
       </c>
@@ -5636,10 +5645,10 @@
         <v>58</v>
       </c>
       <c r="J170" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>119</v>
       </c>
@@ -5647,19 +5656,19 @@
         <v>57</v>
       </c>
       <c r="J290" t="s">
+        <v>481</v>
+      </c>
+      <c r="K290" t="s">
         <v>482</v>
       </c>
-      <c r="K290" t="s">
+      <c r="L290" t="s">
         <v>483</v>
-      </c>
-      <c r="L290" t="s">
-        <v>484</v>
       </c>
       <c r="N290" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>119</v>
       </c>
@@ -5667,19 +5676,19 @@
         <v>57</v>
       </c>
       <c r="J291" t="s">
+        <v>481</v>
+      </c>
+      <c r="K291" t="s">
         <v>482</v>
       </c>
-      <c r="K291" t="s">
+      <c r="L291" t="s">
         <v>483</v>
-      </c>
-      <c r="L291" t="s">
-        <v>484</v>
       </c>
       <c r="N291" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>119</v>
       </c>
@@ -5687,16 +5696,16 @@
         <v>57</v>
       </c>
       <c r="J292" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L292" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N292" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>119</v>
       </c>
@@ -5704,16 +5713,16 @@
         <v>57</v>
       </c>
       <c r="J293" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L293" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N293" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>119</v>
       </c>
@@ -5721,16 +5730,16 @@
         <v>57</v>
       </c>
       <c r="J294" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N294" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>119</v>
       </c>
@@ -5738,16 +5747,16 @@
         <v>57</v>
       </c>
       <c r="J295" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L295" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N295" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>119</v>
       </c>
@@ -5755,16 +5764,16 @@
         <v>57</v>
       </c>
       <c r="J296" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L296" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N296" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>119</v>
       </c>
@@ -5772,16 +5781,16 @@
         <v>57</v>
       </c>
       <c r="J297" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L297" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N297" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>119</v>
       </c>
@@ -5789,16 +5798,16 @@
         <v>57</v>
       </c>
       <c r="J298" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L298" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N298" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>119</v>
       </c>
@@ -5806,16 +5815,16 @@
         <v>57</v>
       </c>
       <c r="J299" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L299" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N299" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>119</v>
       </c>
@@ -5823,16 +5832,16 @@
         <v>57</v>
       </c>
       <c r="J300" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L300" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N300" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>119</v>
       </c>
@@ -5840,16 +5849,16 @@
         <v>57</v>
       </c>
       <c r="J301" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L301" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N301" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>119</v>
       </c>
@@ -5860,19 +5869,19 @@
         <v>75</v>
       </c>
       <c r="J302" t="s">
+        <v>484</v>
+      </c>
+      <c r="K302" t="s">
         <v>485</v>
       </c>
-      <c r="K302" t="s">
+      <c r="L302" t="s">
         <v>486</v>
       </c>
-      <c r="L302" t="s">
+      <c r="N302" t="s">
         <v>487</v>
       </c>
-      <c r="N302" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14">
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>119</v>
       </c>
@@ -5883,16 +5892,16 @@
         <v>75</v>
       </c>
       <c r="J303" t="s">
+        <v>488</v>
+      </c>
+      <c r="K303" t="s">
         <v>489</v>
       </c>
-      <c r="K303" t="s">
+      <c r="L303" t="s">
         <v>490</v>
       </c>
-      <c r="L303" t="s">
-        <v>491</v>
-      </c>
       <c r="N303" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/crew manifest.xlsx
+++ b/crew manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modro\assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162C0E11-82D3-4E26-85E8-2A20879D0558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB3C36-2007-47F5-9E9B-26AEED6A36CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,7 +1637,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92B3D360-4624-4115-94D5-4B68FCACB4DD}" name="Table2" displayName="Table2" ref="A1:O289" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:O289" xr:uid="{1BFA0AAA-F1AD-46FE-90F5-135B84BFF5AE}"/>
+  <autoFilter ref="A1:O289" xr:uid="{1BFA0AAA-F1AD-46FE-90F5-135B84BFF5AE}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Wouter Loos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O289">
     <sortCondition ref="N1:N289"/>
   </sortState>
@@ -1961,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="I148" sqref="A148:XFD148"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -2879,12 +2885,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>157</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>198</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>198</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>227</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>266</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>276</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>286</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>315</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>317</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>329</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -4658,7 +4664,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>340</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>350</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>354</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>354</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>359</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>85</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>374</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>183</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>380</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -4988,7 +4994,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>406</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>410</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>410</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>410</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>410</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>422</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>426</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>427</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>430</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>430</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -5359,7 +5365,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>443</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>445</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>448</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>452</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>455</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>463</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>464</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>67</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>466</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>469</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>471</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>472</v>
       </c>
@@ -5597,7 +5603,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>477</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>149</v>
       </c>
@@ -5648,6 +5654,125 @@
         <v>480</v>
       </c>
     </row>
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>119</v>

--- a/crew manifest.xlsx
+++ b/crew manifest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modro\assignment3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\Lee\Intro to IT\Github\assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617DBA7-F8D6-479A-AE67-E6231CA9AD9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EAF71A-0BEF-4DA5-9842-AF8C301C48CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="4092" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92B3D360-4624-4115-94D5-4B68FCACB4DD}" name="Table2" displayName="Table2" ref="A1:O289" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:O289" xr:uid="{1BFA0AAA-F1AD-46FE-90F5-135B84BFF5AE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O289">
+  <sortState ref="A2:O289">
     <sortCondition ref="B1:B289"/>
   </sortState>
   <tableColumns count="15">
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="82.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="82.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.85546875" customWidth="1"/>
     <col min="12" max="12" width="126.85546875" bestFit="1" customWidth="1"/>
